--- a/Team-Data/2013-14/1-14-2013-14.xlsx
+++ b/Team-Data/2013-14/1-14-2013-14.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>1.4</v>
       </c>
       <c r="AD2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE2" t="n">
         <v>11</v>
@@ -759,7 +826,7 @@
         <v>7</v>
       </c>
       <c r="AI2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ2" t="n">
         <v>18</v>
@@ -774,13 +841,13 @@
         <v>4</v>
       </c>
       <c r="AN2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AO2" t="n">
         <v>19</v>
       </c>
       <c r="AP2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AQ2" t="n">
         <v>9</v>
@@ -798,22 +865,22 @@
         <v>1</v>
       </c>
       <c r="AV2" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AW2" t="n">
         <v>7</v>
       </c>
       <c r="AX2" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AY2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ2" t="n">
         <v>5</v>
       </c>
       <c r="BA2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BB2" t="n">
         <v>14</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-14-2013-14</t>
+          <t>2014-01-14</t>
         </is>
       </c>
     </row>
@@ -929,7 +996,7 @@
         <v>1</v>
       </c>
       <c r="AE3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AF3" t="n">
         <v>27</v>
@@ -959,7 +1026,7 @@
         <v>26</v>
       </c>
       <c r="AO3" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AP3" t="n">
         <v>26</v>
@@ -974,10 +1041,10 @@
         <v>20</v>
       </c>
       <c r="AT3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AU3" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AV3" t="n">
         <v>26</v>
@@ -989,7 +1056,7 @@
         <v>17</v>
       </c>
       <c r="AY3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ3" t="n">
         <v>23</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-14-2013-14</t>
+          <t>2014-01-14</t>
         </is>
       </c>
     </row>
@@ -1108,16 +1175,16 @@
         <v>-4.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AE4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF4" t="n">
         <v>18</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AH4" t="n">
         <v>6</v>
@@ -1138,7 +1205,7 @@
         <v>19</v>
       </c>
       <c r="AN4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO4" t="n">
         <v>6</v>
@@ -1150,7 +1217,7 @@
         <v>15</v>
       </c>
       <c r="AR4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AS4" t="n">
         <v>25</v>
@@ -1171,10 +1238,10 @@
         <v>28</v>
       </c>
       <c r="AY4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BA4" t="n">
         <v>6</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-14-2013-14</t>
+          <t>2014-01-14</t>
         </is>
       </c>
     </row>
@@ -1212,97 +1279,97 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E5" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F5" t="n">
         <v>23</v>
       </c>
       <c r="G5" t="n">
-        <v>0.41</v>
+        <v>0.395</v>
       </c>
       <c r="H5" t="n">
         <v>48.4</v>
       </c>
       <c r="I5" t="n">
-        <v>34.9</v>
+        <v>34.8</v>
       </c>
       <c r="J5" t="n">
-        <v>81.7</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K5" t="n">
-        <v>0.427</v>
+        <v>0.425</v>
       </c>
       <c r="L5" t="n">
         <v>5.3</v>
       </c>
       <c r="M5" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="N5" t="n">
-        <v>0.341</v>
+        <v>0.339</v>
       </c>
       <c r="O5" t="n">
-        <v>18.3</v>
+        <v>18.1</v>
       </c>
       <c r="P5" t="n">
-        <v>25.1</v>
+        <v>24.8</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.73</v>
+        <v>0.728</v>
       </c>
       <c r="R5" t="n">
-        <v>9.699999999999999</v>
+        <v>9.9</v>
       </c>
       <c r="S5" t="n">
         <v>32.5</v>
       </c>
       <c r="T5" t="n">
-        <v>42.2</v>
+        <v>42.3</v>
       </c>
       <c r="U5" t="n">
         <v>19.4</v>
       </c>
       <c r="V5" t="n">
-        <v>12.8</v>
+        <v>13</v>
       </c>
       <c r="W5" t="n">
         <v>6.4</v>
       </c>
       <c r="X5" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="Z5" t="n">
         <v>18.8</v>
       </c>
       <c r="AA5" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="AB5" t="n">
-        <v>93.40000000000001</v>
+        <v>93</v>
       </c>
       <c r="AC5" t="n">
-        <v>-3.2</v>
+        <v>-3.6</v>
       </c>
       <c r="AD5" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AE5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AH5" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI5" t="n">
         <v>27</v>
@@ -1323,13 +1390,13 @@
         <v>25</v>
       </c>
       <c r="AO5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AQ5" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AR5" t="n">
         <v>23</v>
@@ -1338,10 +1405,10 @@
         <v>13</v>
       </c>
       <c r="AT5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AU5" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AV5" t="n">
         <v>2</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-14-2013-14</t>
+          <t>2014-01-14</t>
         </is>
       </c>
     </row>
@@ -1472,16 +1539,16 @@
         <v>-0.6</v>
       </c>
       <c r="AD6" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AE6" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF6" t="n">
         <v>14</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AH6" t="n">
         <v>8</v>
@@ -1523,7 +1590,7 @@
         <v>9</v>
       </c>
       <c r="AU6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AV6" t="n">
         <v>27</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-14-2013-14</t>
+          <t>2014-01-14</t>
         </is>
       </c>
     </row>
@@ -1576,61 +1643,61 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F7" t="n">
         <v>24</v>
       </c>
       <c r="G7" t="n">
-        <v>0.368</v>
+        <v>0.351</v>
       </c>
       <c r="H7" t="n">
         <v>49.1</v>
       </c>
       <c r="I7" t="n">
-        <v>36.4</v>
+        <v>36.3</v>
       </c>
       <c r="J7" t="n">
-        <v>85.59999999999999</v>
+        <v>85.5</v>
       </c>
       <c r="K7" t="n">
-        <v>0.425</v>
+        <v>0.424</v>
       </c>
       <c r="L7" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="M7" t="n">
         <v>19.8</v>
       </c>
       <c r="N7" t="n">
-        <v>0.37</v>
+        <v>0.361</v>
       </c>
       <c r="O7" t="n">
-        <v>16.1</v>
+        <v>15.8</v>
       </c>
       <c r="P7" t="n">
-        <v>21.6</v>
+        <v>21.3</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.745</v>
+        <v>0.743</v>
       </c>
       <c r="R7" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="S7" t="n">
-        <v>32.4</v>
+        <v>32.5</v>
       </c>
       <c r="T7" t="n">
         <v>44.4</v>
       </c>
       <c r="U7" t="n">
-        <v>19.4</v>
+        <v>19.2</v>
       </c>
       <c r="V7" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="W7" t="n">
         <v>7.1</v>
@@ -1648,22 +1715,22 @@
         <v>19.5</v>
       </c>
       <c r="AB7" t="n">
-        <v>96.2</v>
+        <v>95.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>-5.5</v>
+        <v>-5.7</v>
       </c>
       <c r="AD7" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AE7" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AF7" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AH7" t="n">
         <v>1</v>
@@ -1678,16 +1745,16 @@
         <v>28</v>
       </c>
       <c r="AL7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM7" t="n">
         <v>24</v>
       </c>
       <c r="AN7" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AO7" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AP7" t="n">
         <v>20</v>
@@ -1705,16 +1772,16 @@
         <v>11</v>
       </c>
       <c r="AU7" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AV7" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AW7" t="n">
         <v>23</v>
       </c>
       <c r="AX7" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AY7" t="n">
         <v>28</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-14-2013-14</t>
+          <t>2014-01-14</t>
         </is>
       </c>
     </row>
@@ -1869,7 +1936,7 @@
         <v>6</v>
       </c>
       <c r="AO8" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP8" t="n">
         <v>27</v>
@@ -1896,7 +1963,7 @@
         <v>1</v>
       </c>
       <c r="AX8" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AY8" t="n">
         <v>4</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-14-2013-14</t>
+          <t>2014-01-14</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>1</v>
       </c>
       <c r="AD9" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AE9" t="n">
         <v>12</v>
@@ -2054,10 +2121,10 @@
         <v>8</v>
       </c>
       <c r="AP9" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AQ9" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AR9" t="n">
         <v>5</v>
@@ -2069,7 +2136,7 @@
         <v>4</v>
       </c>
       <c r="AU9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AV9" t="n">
         <v>13</v>
@@ -2084,7 +2151,7 @@
         <v>22</v>
       </c>
       <c r="AZ9" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BA9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-14-2013-14</t>
+          <t>2014-01-14</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-3.1</v>
       </c>
       <c r="AD10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE10" t="n">
         <v>18</v>
@@ -2236,7 +2303,7 @@
         <v>17</v>
       </c>
       <c r="AP10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AQ10" t="n">
         <v>30</v>
@@ -2254,7 +2321,7 @@
         <v>18</v>
       </c>
       <c r="AV10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW10" t="n">
         <v>5</v>
@@ -2272,7 +2339,7 @@
         <v>13</v>
       </c>
       <c r="BB10" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BC10" t="n">
         <v>21</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-14-2013-14</t>
+          <t>2014-01-14</t>
         </is>
       </c>
     </row>
@@ -2394,7 +2461,7 @@
         <v>7</v>
       </c>
       <c r="AH11" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AI11" t="n">
         <v>5</v>
@@ -2421,7 +2488,7 @@
         <v>19</v>
       </c>
       <c r="AQ11" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AR11" t="n">
         <v>16</v>
@@ -2445,10 +2512,10 @@
         <v>11</v>
       </c>
       <c r="AY11" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ11" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BA11" t="n">
         <v>19</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-14-2013-14</t>
+          <t>2014-01-14</t>
         </is>
       </c>
     </row>
@@ -2576,7 +2643,7 @@
         <v>7</v>
       </c>
       <c r="AH12" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AI12" t="n">
         <v>18</v>
@@ -2594,7 +2661,7 @@
         <v>3</v>
       </c>
       <c r="AN12" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO12" t="n">
         <v>1</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-14-2013-14</t>
+          <t>2014-01-14</t>
         </is>
       </c>
     </row>
@@ -2668,40 +2735,40 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E13" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F13" t="n">
         <v>7</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8110000000000001</v>
+        <v>0.806</v>
       </c>
       <c r="H13" t="n">
         <v>48.1</v>
       </c>
       <c r="I13" t="n">
-        <v>36.2</v>
+        <v>35.9</v>
       </c>
       <c r="J13" t="n">
-        <v>79.40000000000001</v>
+        <v>79.3</v>
       </c>
       <c r="K13" t="n">
-        <v>0.456</v>
+        <v>0.453</v>
       </c>
       <c r="L13" t="n">
         <v>7.1</v>
       </c>
       <c r="M13" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="N13" t="n">
-        <v>0.358</v>
+        <v>0.357</v>
       </c>
       <c r="O13" t="n">
-        <v>17.9</v>
+        <v>17.8</v>
       </c>
       <c r="P13" t="n">
         <v>22.8</v>
@@ -2719,7 +2786,7 @@
         <v>44.6</v>
       </c>
       <c r="U13" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="V13" t="n">
         <v>15.8</v>
@@ -2728,28 +2795,28 @@
         <v>7.4</v>
       </c>
       <c r="X13" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="Y13" t="n">
         <v>4.6</v>
       </c>
       <c r="Z13" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="AA13" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="AB13" t="n">
-        <v>97.40000000000001</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="AC13" t="n">
-        <v>9.300000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="AD13" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="AE13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF13" t="n">
         <v>1</v>
@@ -2761,13 +2828,13 @@
         <v>25</v>
       </c>
       <c r="AI13" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ13" t="n">
         <v>27</v>
       </c>
       <c r="AK13" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AL13" t="n">
         <v>21</v>
@@ -2776,19 +2843,19 @@
         <v>22</v>
       </c>
       <c r="AN13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AO13" t="n">
         <v>13</v>
       </c>
       <c r="AP13" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AQ13" t="n">
         <v>5</v>
       </c>
       <c r="AR13" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AS13" t="n">
         <v>3</v>
@@ -2800,19 +2867,19 @@
         <v>17</v>
       </c>
       <c r="AV13" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AW13" t="n">
         <v>18</v>
       </c>
       <c r="AX13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA13" t="n">
         <v>7</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-14-2013-14</t>
+          <t>2014-01-14</t>
         </is>
       </c>
     </row>
@@ -2940,7 +3007,7 @@
         <v>6</v>
       </c>
       <c r="AH14" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AI14" t="n">
         <v>11</v>
@@ -2949,13 +3016,13 @@
         <v>20</v>
       </c>
       <c r="AK14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AL14" t="n">
         <v>12</v>
       </c>
       <c r="AM14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AN14" t="n">
         <v>27</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-14-2013-14</t>
+          <t>2014-01-14</t>
         </is>
       </c>
     </row>
@@ -3032,34 +3099,34 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E15" t="n">
         <v>14</v>
       </c>
       <c r="F15" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G15" t="n">
-        <v>0.368</v>
+        <v>0.378</v>
       </c>
       <c r="H15" t="n">
         <v>48</v>
       </c>
       <c r="I15" t="n">
-        <v>36.7</v>
+        <v>36.5</v>
       </c>
       <c r="J15" t="n">
         <v>83.90000000000001</v>
       </c>
       <c r="K15" t="n">
-        <v>0.438</v>
+        <v>0.436</v>
       </c>
       <c r="L15" t="n">
-        <v>9.199999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="M15" t="n">
-        <v>25.3</v>
+        <v>25.1</v>
       </c>
       <c r="N15" t="n">
         <v>0.361</v>
@@ -3074,28 +3141,28 @@
         <v>0.747</v>
       </c>
       <c r="R15" t="n">
-        <v>10.2</v>
+        <v>10.3</v>
       </c>
       <c r="S15" t="n">
-        <v>32.8</v>
+        <v>32.9</v>
       </c>
       <c r="T15" t="n">
-        <v>43</v>
+        <v>43.2</v>
       </c>
       <c r="U15" t="n">
-        <v>22.4</v>
+        <v>22.1</v>
       </c>
       <c r="V15" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="W15" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="X15" t="n">
         <v>5.8</v>
       </c>
       <c r="Y15" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Z15" t="n">
         <v>20.7</v>
@@ -3104,19 +3171,19 @@
         <v>19.2</v>
       </c>
       <c r="AB15" t="n">
-        <v>99.8</v>
+        <v>99.3</v>
       </c>
       <c r="AC15" t="n">
-        <v>-5.7</v>
+        <v>-5.8</v>
       </c>
       <c r="AD15" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AE15" t="n">
         <v>23</v>
       </c>
       <c r="AF15" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG15" t="n">
         <v>23</v>
@@ -3131,7 +3198,7 @@
         <v>11</v>
       </c>
       <c r="AK15" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AL15" t="n">
         <v>5</v>
@@ -3158,31 +3225,31 @@
         <v>11</v>
       </c>
       <c r="AT15" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AU15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AV15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AW15" t="n">
         <v>28</v>
       </c>
       <c r="AX15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ15" t="n">
         <v>16</v>
       </c>
       <c r="BA15" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BB15" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BC15" t="n">
         <v>26</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-14-2013-14</t>
+          <t>2014-01-14</t>
         </is>
       </c>
     </row>
@@ -3214,28 +3281,28 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E16" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F16" t="n">
         <v>19</v>
       </c>
       <c r="G16" t="n">
-        <v>0.486</v>
+        <v>0.472</v>
       </c>
       <c r="H16" t="n">
         <v>48.4</v>
       </c>
       <c r="I16" t="n">
-        <v>37.8</v>
+        <v>37.9</v>
       </c>
       <c r="J16" t="n">
-        <v>83.2</v>
+        <v>83.3</v>
       </c>
       <c r="K16" t="n">
-        <v>0.454</v>
+        <v>0.455</v>
       </c>
       <c r="L16" t="n">
         <v>5</v>
@@ -3244,34 +3311,34 @@
         <v>14.2</v>
       </c>
       <c r="N16" t="n">
-        <v>0.35</v>
+        <v>0.352</v>
       </c>
       <c r="O16" t="n">
-        <v>16</v>
+        <v>15.8</v>
       </c>
       <c r="P16" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.752</v>
+        <v>0.75</v>
       </c>
       <c r="R16" t="n">
         <v>12.3</v>
       </c>
       <c r="S16" t="n">
-        <v>31</v>
+        <v>30.9</v>
       </c>
       <c r="T16" t="n">
-        <v>43.2</v>
+        <v>43.3</v>
       </c>
       <c r="U16" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="V16" t="n">
         <v>13.5</v>
       </c>
       <c r="W16" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="X16" t="n">
         <v>4.2</v>
@@ -3280,40 +3347,40 @@
         <v>5.7</v>
       </c>
       <c r="Z16" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="AA16" t="n">
-        <v>19.4</v>
+        <v>19.2</v>
       </c>
       <c r="AB16" t="n">
-        <v>96.5</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="AC16" t="n">
-        <v>-0.8</v>
+        <v>-0.9</v>
       </c>
       <c r="AD16" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="AE16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AF16" t="n">
         <v>14</v>
       </c>
       <c r="AG16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH16" t="n">
         <v>14</v>
       </c>
       <c r="AI16" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AJ16" t="n">
         <v>14</v>
       </c>
       <c r="AK16" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AL16" t="n">
         <v>30</v>
@@ -3325,13 +3392,13 @@
         <v>18</v>
       </c>
       <c r="AO16" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AP16" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AQ16" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AR16" t="n">
         <v>6</v>
@@ -3358,10 +3425,10 @@
         <v>21</v>
       </c>
       <c r="AZ16" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA16" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="BB16" t="n">
         <v>21</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-14-2013-14</t>
+          <t>2014-01-14</t>
         </is>
       </c>
     </row>
@@ -3474,13 +3541,13 @@
         <v>6.1</v>
       </c>
       <c r="AD17" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AE17" t="n">
         <v>5</v>
       </c>
       <c r="AF17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG17" t="n">
         <v>5</v>
@@ -3507,7 +3574,7 @@
         <v>7</v>
       </c>
       <c r="AO17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP17" t="n">
         <v>11</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-14-2013-14</t>
+          <t>2014-01-14</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-8.800000000000001</v>
       </c>
       <c r="AD18" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AE18" t="n">
         <v>30</v>
@@ -3680,7 +3747,7 @@
         <v>30</v>
       </c>
       <c r="AL18" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AM18" t="n">
         <v>18</v>
@@ -3713,7 +3780,7 @@
         <v>24</v>
       </c>
       <c r="AW18" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AX18" t="n">
         <v>7</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-14-2013-14</t>
+          <t>2014-01-14</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>4.6</v>
       </c>
       <c r="AD19" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AE19" t="n">
         <v>14</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-14-2013-14</t>
+          <t>2014-01-14</t>
         </is>
       </c>
     </row>
@@ -4020,16 +4087,16 @@
         <v>-1.7</v>
       </c>
       <c r="AD20" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AE20" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF20" t="n">
         <v>18</v>
       </c>
       <c r="AG20" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AH20" t="n">
         <v>9</v>
@@ -4068,16 +4135,16 @@
         <v>24</v>
       </c>
       <c r="AT20" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AU20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AV20" t="n">
         <v>4</v>
       </c>
       <c r="AW20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX20" t="n">
         <v>2</v>
@@ -4095,7 +4162,7 @@
         <v>15</v>
       </c>
       <c r="BC20" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-14-2013-14</t>
+          <t>2014-01-14</t>
         </is>
       </c>
     </row>
@@ -4124,16 +4191,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E21" t="n">
         <v>15</v>
       </c>
       <c r="F21" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G21" t="n">
-        <v>0.395</v>
+        <v>0.405</v>
       </c>
       <c r="H21" t="n">
         <v>48.5</v>
@@ -4142,16 +4209,16 @@
         <v>36.3</v>
       </c>
       <c r="J21" t="n">
-        <v>83</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="K21" t="n">
-        <v>0.438</v>
+        <v>0.437</v>
       </c>
       <c r="L21" t="n">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="M21" t="n">
-        <v>23.9</v>
+        <v>24.1</v>
       </c>
       <c r="N21" t="n">
         <v>0.357</v>
@@ -4166,25 +4233,25 @@
         <v>0.762</v>
       </c>
       <c r="R21" t="n">
-        <v>10.4</v>
+        <v>10.6</v>
       </c>
       <c r="S21" t="n">
         <v>29.3</v>
       </c>
       <c r="T21" t="n">
-        <v>39.7</v>
+        <v>39.9</v>
       </c>
       <c r="U21" t="n">
         <v>20.4</v>
       </c>
       <c r="V21" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="W21" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="X21" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Y21" t="n">
         <v>3.8</v>
@@ -4199,28 +4266,28 @@
         <v>95.40000000000001</v>
       </c>
       <c r="AC21" t="n">
-        <v>-2.8</v>
+        <v>-2.6</v>
       </c>
       <c r="AD21" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AE21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF21" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI21" t="n">
         <v>21</v>
       </c>
-      <c r="AG21" t="n">
-        <v>22</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>22</v>
-      </c>
       <c r="AJ21" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AK21" t="n">
         <v>23</v>
@@ -4229,7 +4296,7 @@
         <v>8</v>
       </c>
       <c r="AM21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AN21" t="n">
         <v>15</v>
@@ -4253,16 +4320,16 @@
         <v>29</v>
       </c>
       <c r="AU21" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AV21" t="n">
         <v>1</v>
       </c>
       <c r="AW21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX21" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AY21" t="n">
         <v>5</v>
@@ -4271,7 +4338,7 @@
         <v>29</v>
       </c>
       <c r="BA21" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BB21" t="n">
         <v>24</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-14-2013-14</t>
+          <t>2014-01-14</t>
         </is>
       </c>
     </row>
@@ -4306,43 +4373,43 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E22" t="n">
         <v>28</v>
       </c>
       <c r="F22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G22" t="n">
-        <v>0.737</v>
+        <v>0.757</v>
       </c>
       <c r="H22" t="n">
         <v>48.3</v>
       </c>
       <c r="I22" t="n">
-        <v>38.4</v>
+        <v>38.6</v>
       </c>
       <c r="J22" t="n">
         <v>82.90000000000001</v>
       </c>
       <c r="K22" t="n">
-        <v>0.463</v>
+        <v>0.465</v>
       </c>
       <c r="L22" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="M22" t="n">
         <v>20.2</v>
       </c>
       <c r="N22" t="n">
-        <v>0.342</v>
+        <v>0.345</v>
       </c>
       <c r="O22" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="P22" t="n">
-        <v>25.7</v>
+        <v>25.8</v>
       </c>
       <c r="Q22" t="n">
         <v>0.8169999999999999</v>
@@ -4354,16 +4421,16 @@
         <v>35.9</v>
       </c>
       <c r="T22" t="n">
-        <v>46.9</v>
+        <v>47</v>
       </c>
       <c r="U22" t="n">
-        <v>21.5</v>
+        <v>21.8</v>
       </c>
       <c r="V22" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="W22" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="X22" t="n">
         <v>6.2</v>
@@ -4372,31 +4439,31 @@
         <v>4</v>
       </c>
       <c r="Z22" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="AA22" t="n">
         <v>20.9</v>
       </c>
       <c r="AB22" t="n">
-        <v>104.7</v>
+        <v>105.2</v>
       </c>
       <c r="AC22" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AD22" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AE22" t="n">
         <v>3</v>
       </c>
       <c r="AF22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH22" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI22" t="n">
         <v>9</v>
@@ -4405,16 +4472,16 @@
         <v>17</v>
       </c>
       <c r="AK22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AL22" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AM22" t="n">
         <v>20</v>
       </c>
       <c r="AN22" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AO22" t="n">
         <v>3</v>
@@ -4435,13 +4502,13 @@
         <v>1</v>
       </c>
       <c r="AU22" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AV22" t="n">
         <v>23</v>
       </c>
       <c r="AW22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AX22" t="n">
         <v>1</v>
@@ -4450,7 +4517,7 @@
         <v>7</v>
       </c>
       <c r="AZ22" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="BA22" t="n">
         <v>12</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-14-2013-14</t>
+          <t>2014-01-14</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>-6.1</v>
       </c>
       <c r="AD23" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE23" t="n">
         <v>29</v>
@@ -4578,34 +4645,34 @@
         <v>29</v>
       </c>
       <c r="AH23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI23" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AJ23" t="n">
         <v>22</v>
       </c>
       <c r="AK23" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AL23" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AM23" t="n">
         <v>15</v>
       </c>
       <c r="AN23" t="n">
+        <v>24</v>
+      </c>
+      <c r="AO23" t="n">
         <v>23</v>
       </c>
-      <c r="AO23" t="n">
-        <v>25</v>
-      </c>
       <c r="AP23" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AQ23" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AR23" t="n">
         <v>27</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-14-2013-14</t>
+          <t>2014-01-14</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>-8.4</v>
       </c>
       <c r="AD24" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AE24" t="n">
         <v>28</v>
@@ -4772,7 +4839,7 @@
         <v>18</v>
       </c>
       <c r="AL24" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AM24" t="n">
         <v>11</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-14-2013-14</t>
+          <t>2014-01-14</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>2.4</v>
       </c>
       <c r="AD25" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AE25" t="n">
         <v>10</v>
@@ -4960,7 +5027,7 @@
         <v>1</v>
       </c>
       <c r="AN25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO25" t="n">
         <v>14</v>
@@ -4969,13 +5036,13 @@
         <v>13</v>
       </c>
       <c r="AQ25" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AR25" t="n">
         <v>11</v>
       </c>
       <c r="AS25" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AT25" t="n">
         <v>13</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-14-2013-14</t>
+          <t>2014-01-14</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>6.2</v>
       </c>
       <c r="AD26" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AE26" t="n">
         <v>3</v>
@@ -5124,7 +5191,7 @@
         <v>3</v>
       </c>
       <c r="AH26" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AI26" t="n">
         <v>2</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-14-2013-14</t>
+          <t>2014-01-14</t>
         </is>
       </c>
     </row>
@@ -5216,16 +5283,16 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
       </c>
       <c r="F27" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G27" t="n">
-        <v>0.361</v>
+        <v>0.371</v>
       </c>
       <c r="H27" t="n">
         <v>48.4</v>
@@ -5234,40 +5301,40 @@
         <v>37.5</v>
       </c>
       <c r="J27" t="n">
-        <v>83.7</v>
+        <v>83.5</v>
       </c>
       <c r="K27" t="n">
-        <v>0.448</v>
+        <v>0.449</v>
       </c>
       <c r="L27" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="M27" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.347</v>
+      </c>
+      <c r="O27" t="n">
         <v>20</v>
       </c>
-      <c r="N27" t="n">
-        <v>0.346</v>
-      </c>
-      <c r="O27" t="n">
-        <v>19.8</v>
-      </c>
       <c r="P27" t="n">
-        <v>25.6</v>
+        <v>25.9</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.771</v>
+        <v>0.775</v>
       </c>
       <c r="R27" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="S27" t="n">
-        <v>31.7</v>
+        <v>31.9</v>
       </c>
       <c r="T27" t="n">
-        <v>43.4</v>
+        <v>43.5</v>
       </c>
       <c r="U27" t="n">
-        <v>20.2</v>
+        <v>20.4</v>
       </c>
       <c r="V27" t="n">
         <v>14.7</v>
@@ -5282,28 +5349,28 @@
         <v>5.8</v>
       </c>
       <c r="Z27" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="AA27" t="n">
-        <v>22.5</v>
+        <v>22.7</v>
       </c>
       <c r="AB27" t="n">
-        <v>101.7</v>
+        <v>102</v>
       </c>
       <c r="AC27" t="n">
-        <v>-2.3</v>
+        <v>-1.6</v>
       </c>
       <c r="AD27" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AE27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AF27" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AG27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AH27" t="n">
         <v>13</v>
@@ -5318,7 +5385,7 @@
         <v>14</v>
       </c>
       <c r="AL27" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AM27" t="n">
         <v>21</v>
@@ -5330,7 +5397,7 @@
         <v>5</v>
       </c>
       <c r="AP27" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AQ27" t="n">
         <v>7</v>
@@ -5339,19 +5406,19 @@
         <v>10</v>
       </c>
       <c r="AS27" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AT27" t="n">
         <v>12</v>
       </c>
       <c r="AU27" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AV27" t="n">
         <v>12</v>
       </c>
       <c r="AW27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AX27" t="n">
         <v>29</v>
@@ -5363,13 +5430,13 @@
         <v>30</v>
       </c>
       <c r="BA27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BB27" t="n">
         <v>13</v>
       </c>
       <c r="BC27" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-14-2013-14</t>
+          <t>2014-01-14</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AD28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE28" t="n">
         <v>1</v>
@@ -5494,7 +5561,7 @@
         <v>1</v>
       </c>
       <c r="AJ28" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AK28" t="n">
         <v>2</v>
@@ -5524,7 +5591,7 @@
         <v>5</v>
       </c>
       <c r="AT28" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AU28" t="n">
         <v>2</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-14-2013-14</t>
+          <t>2014-01-14</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>2.8</v>
       </c>
       <c r="AD29" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AE29" t="n">
         <v>12</v>
@@ -5679,7 +5746,7 @@
         <v>23</v>
       </c>
       <c r="AK29" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL29" t="n">
         <v>14</v>
@@ -5688,7 +5755,7 @@
         <v>13</v>
       </c>
       <c r="AN29" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO29" t="n">
         <v>7</v>
@@ -5727,7 +5794,7 @@
         <v>28</v>
       </c>
       <c r="BA29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB29" t="n">
         <v>18</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-14-2013-14</t>
+          <t>2014-01-14</t>
         </is>
       </c>
     </row>
@@ -5843,7 +5910,7 @@
         <v>1</v>
       </c>
       <c r="AE30" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AF30" t="n">
         <v>27</v>
@@ -5873,10 +5940,10 @@
         <v>17</v>
       </c>
       <c r="AO30" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP30" t="n">
         <v>22</v>
-      </c>
-      <c r="AP30" t="n">
-        <v>23</v>
       </c>
       <c r="AQ30" t="n">
         <v>17</v>
@@ -5891,10 +5958,10 @@
         <v>25</v>
       </c>
       <c r="AU30" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AV30" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AW30" t="n">
         <v>25</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-14-2013-14</t>
+          <t>2014-01-14</t>
         </is>
       </c>
     </row>
@@ -6022,16 +6089,16 @@
         <v>-1.4</v>
       </c>
       <c r="AD31" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AE31" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF31" t="n">
         <v>14</v>
       </c>
       <c r="AG31" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AH31" t="n">
         <v>4</v>
@@ -6058,10 +6125,10 @@
         <v>27</v>
       </c>
       <c r="AP31" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AQ31" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AR31" t="n">
         <v>15</v>
@@ -6076,7 +6143,7 @@
         <v>10</v>
       </c>
       <c r="AV31" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AW31" t="n">
         <v>9</v>
@@ -6091,7 +6158,7 @@
         <v>14</v>
       </c>
       <c r="BA31" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BB31" t="n">
         <v>19</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-14-2013-14</t>
+          <t>2014-01-14</t>
         </is>
       </c>
     </row>
